--- a/cms-server/utils/zjModel.xlsx
+++ b/cms-server/utils/zjModel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="2740" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -479,6 +479,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -497,13 +533,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,12 +545,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -528,33 +555,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -856,7 +856,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -873,86 +873,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -963,17 +963,17 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1014,13 +1014,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -1030,6 +1023,13 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cms-server/utils/zjModel.xlsx
+++ b/cms-server/utils/zjModel.xlsx
@@ -73,7 +73,7 @@
     <t>厂家/来源</t>
   </si>
   <si>
-    <t>总金额</t>
+    <t>交货日期</t>
   </si>
   <si>
     <t>预计到货日期</t>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -123,7 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,14 +149,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -164,6 +156,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
@@ -171,32 +218,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,77 +268,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -298,31 +298,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,25 +406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,121 +436,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,15 +754,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,6 +763,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,30 +797,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -832,6 +814,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -855,159 +846,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
